--- a/sputnik/personal/cel/cel50.xlsx
+++ b/sputnik/personal/cel/cel50.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -174,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -213,6 +213,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -520,10 +521,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="A11" sqref="A11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -644,6 +645,17 @@
       <c r="C10" s="11"/>
       <c r="D10" s="11">
         <v>1449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>43952</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/cel/cel50.xlsx
+++ b/sputnik/personal/cel/cel50.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,18 +40,6 @@
   </si>
   <si>
     <t>Начислен целевой взнос на приобретение мини трактора</t>
-  </si>
-  <si>
-    <t>Оплачен целевой взнос на ремонт дорог на территории СНТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оплачен целевой взнос на освещение центральной дороги </t>
-  </si>
-  <si>
-    <t>Оплачен целевой взнос на ремонт общей подъездной дороги</t>
-  </si>
-  <si>
-    <t>Оплачен целевой взнос на приобретение мини трактора</t>
   </si>
 </sst>
 </file>
@@ -97,7 +85,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -170,11 +158,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -202,7 +201,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -213,7 +211,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -521,10 +519,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C11"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -552,7 +550,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>43466</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -564,7 +562,7 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>43466</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -576,7 +574,7 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>43586</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -588,75 +586,28 @@
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>43586</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>1449</v>
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
-        <v>43682</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>43682</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>43682</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>43724</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
         <v>43952</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C7" s="15">
         <v>1000</v>
       </c>
+      <c r="D7" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel50.xlsx
+++ b/sputnik/personal/cel/cel50.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Начислен целевой взнос на приобретение мини трактора</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -173,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -212,6 +218,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -519,10 +528,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+      <selection activeCell="A8" sqref="A8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -598,7 +607,7 @@
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="18">
         <v>43952</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -608,6 +617,72 @@
         <v>1000</v>
       </c>
       <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>44317</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="16">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>44317</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="16">
+        <v>2050</v>
+      </c>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel50.xlsx
+++ b/sputnik/personal/cel/cel50.xlsx
@@ -528,10 +528,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C9"/>
+      <selection activeCell="A10" sqref="A10:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -643,25 +643,25 @@
       <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -683,6 +683,18 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
